--- a/Module 5 Distribution, Probabilities and z-score/Problem set/Sleeping_Mammals1.xlsx
+++ b/Module 5 Distribution, Probabilities and z-score/Problem set/Sleeping_Mammals1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbrevik/Desktop/NR2400/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/07_ Cursos/Stats_Grad/Module 5 Distribution, Probabilities and z-score/Problem set/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{42DC37DE-55A6-4B4D-803F-3DEA86B3774D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="760" windowWidth="26400" windowHeight="17360"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -266,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -612,31 +601,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="256" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="256" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -674,7 +663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -706,7 +695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -744,7 +733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -776,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -805,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -843,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -878,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -916,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -954,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -992,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1030,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1106,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1138,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1170,7 +1159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1208,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1284,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1392,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1424,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1462,7 +1451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1500,7 +1489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1532,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1570,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1602,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1640,7 +1629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1678,7 +1667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1716,7 +1705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1748,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1777,7 +1766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1815,7 +1804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -1853,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1891,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -1926,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -1961,7 +1950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1999,7 +1988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -2037,7 +2026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -2075,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -2113,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2145,7 +2134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -2183,7 +2172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -2218,7 +2207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -2256,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2294,7 +2283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -2332,7 +2321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -2364,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2402,7 +2391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -2440,7 +2429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -2475,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -2513,7 +2502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -2551,7 +2540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -2586,7 +2575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -2624,7 +2613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -2656,7 +2645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -2691,7 +2680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -2729,7 +2718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -2767,7 +2756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -2805,7 +2794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -2843,7 +2832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -2881,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -2917,14 +2906,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="256" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2932,14 +2921,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="256" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
